--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -558,7 +558,7 @@
         <v>0.5420193487373902</v>
       </c>
       <c r="P2">
-        <v>0.5420193487373901</v>
+        <v>0.5420193487373902</v>
       </c>
       <c r="Q2">
         <v>18.56148117873155</v>
@@ -570,7 +570,7 @@
         <v>0.5420193487373902</v>
       </c>
       <c r="T2">
-        <v>0.5420193487373901</v>
+        <v>0.5420193487373902</v>
       </c>
     </row>
     <row r="3" spans="1:20">
